--- a/program_directory/interpreterAccounting/顺丰控股：2019年年度报告.xlsx
+++ b/program_directory/interpreterAccounting/顺丰控股：2019年年度报告.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="27720" windowHeight="12600" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="27720" windowHeight="12600" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="主要会计数据" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="合并所有者权益变动表" sheetId="7" r:id="rId7"/>
     <sheet name="无形资产情况" sheetId="8" r:id="rId8"/>
     <sheet name="现金流量表补充资料" sheetId="9" r:id="rId9"/>
+    <sheet name="主营业务分行业经营情况" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="392">
   <si>
     <r>
       <rPr>
@@ -3786,6 +3787,54 @@
   </si>
   <si>
     <t>经营性应付项目的增加</t>
+  </si>
+  <si>
+    <t>营业收入</t>
+  </si>
+  <si>
+    <t>营业成本</t>
+  </si>
+  <si>
+    <t>毛利率</t>
+  </si>
+  <si>
+    <t>营业收入比</t>
+  </si>
+  <si>
+    <t>营业成本比上年</t>
+  </si>
+  <si>
+    <t>毛利率比上年</t>
+  </si>
+  <si>
+    <t>上年同期增减</t>
+  </si>
+  <si>
+    <t>同期增减</t>
+  </si>
+  <si>
+    <t>分行业</t>
+  </si>
+  <si>
+    <t>速运物流及供应链</t>
+  </si>
+  <si>
+    <t>110,901,420,494.93</t>
+  </si>
+  <si>
+    <t>91,617,157,215.40</t>
+  </si>
+  <si>
+    <t>17.39%</t>
+  </si>
+  <si>
+    <t>23.67%</t>
+  </si>
+  <si>
+    <t>24.35%</t>
+  </si>
+  <si>
+    <t>-0.45%</t>
   </si>
 </sst>
 </file>
@@ -3795,9 +3844,9 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.00%"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -3858,15 +3907,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3874,43 +3922,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3940,9 +3951,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3956,48 +4043,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4027,18 +4076,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4051,43 +4088,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4105,7 +4118,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4117,7 +4148,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4129,73 +4226,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4384,17 +4433,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4402,8 +4445,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4447,26 +4490,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4481,97 +4504,123 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="23" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="21" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="23" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="22" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="19" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -4580,57 +4629,58 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="20" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="209">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true" applyFill="true" applyAlignment="true">
       <alignment horizontal="left" vertical="top"/>
@@ -5613,281 +5663,281 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:7">
-      <c r="A1" s="175"/>
-      <c r="B1" s="176" t="s">
+      <c r="A1" s="176"/>
+      <c r="B1" s="177" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="177" t="s">
+      <c r="C1" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="178"/>
-      <c r="E1" s="199" t="s">
+      <c r="D1" s="179"/>
+      <c r="E1" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="177" t="s">
+      <c r="F1" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="178"/>
+      <c r="G1" s="179"/>
     </row>
     <row r="2" ht="17.25" spans="1:7">
-      <c r="A2" s="179"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="180" t="s">
+      <c r="A2" s="180"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="180" t="s">
+      <c r="D2" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="180" t="s">
+      <c r="E2" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="180" t="s">
+      <c r="F2" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="180" t="s">
+      <c r="G2" s="181" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:7">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="182">
+      <c r="B3" s="183">
         <v>112193396064.26</v>
       </c>
-      <c r="C3" s="183">
+      <c r="C3" s="184">
         <v>90942694239.83</v>
       </c>
-      <c r="D3" s="183">
+      <c r="D3" s="184">
         <v>90942694239.83</v>
       </c>
-      <c r="E3" s="186">
+      <c r="E3" s="187">
         <v>0.2337</v>
       </c>
-      <c r="F3" s="183">
+      <c r="F3" s="184">
         <v>71272633122.78</v>
       </c>
-      <c r="G3" s="183">
+      <c r="G3" s="184">
         <v>71272633122.78</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:7">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="185" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="183">
+      <c r="B4" s="184">
         <v>5796505532.2</v>
       </c>
-      <c r="C4" s="183">
+      <c r="C4" s="184">
         <v>4556048279.54</v>
       </c>
-      <c r="D4" s="183">
+      <c r="D4" s="184">
         <v>4555906237.39</v>
       </c>
-      <c r="E4" s="186">
+      <c r="E4" s="187">
         <v>0.2723</v>
       </c>
-      <c r="F4" s="183">
+      <c r="F4" s="184">
         <v>4774131883.45</v>
       </c>
-      <c r="G4" s="183">
+      <c r="G4" s="184">
         <v>4774184798.66</v>
       </c>
     </row>
     <row r="5" ht="18.75" spans="1:7">
-      <c r="A5" s="184" t="s">
+      <c r="A5" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="183">
+      <c r="B5" s="184">
         <v>4207763900.82</v>
       </c>
-      <c r="C5" s="183">
+      <c r="C5" s="184">
         <v>3483589642.99</v>
       </c>
-      <c r="D5" s="183">
+      <c r="D5" s="184">
         <v>3483589642.99</v>
       </c>
-      <c r="E5" s="186">
+      <c r="E5" s="187">
         <v>0.2079</v>
       </c>
-      <c r="F5" s="183">
+      <c r="F5" s="184">
         <v>3702637496.23</v>
       </c>
-      <c r="G5" s="183">
+      <c r="G5" s="184">
         <v>3702637496.23</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:7">
-      <c r="A6" s="184" t="s">
+      <c r="A6" s="185" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="183">
+      <c r="B6" s="184">
         <v>9121273475.49</v>
       </c>
-      <c r="C6" s="183">
+      <c r="C6" s="184">
         <v>5424885792.11</v>
       </c>
-      <c r="D6" s="183">
+      <c r="D6" s="184">
         <v>5458300549.11</v>
       </c>
-      <c r="E6" s="186">
+      <c r="E6" s="187">
         <v>0.6711</v>
       </c>
-      <c r="F6" s="183">
+      <c r="F6" s="184">
         <v>6333932523.79</v>
       </c>
-      <c r="G6" s="183">
+      <c r="G6" s="184">
         <v>6283968829.62</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:7">
-      <c r="A7" s="184" t="s">
+      <c r="A7" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="183">
+      <c r="B7" s="184">
         <v>1.32</v>
       </c>
-      <c r="C7" s="183">
+      <c r="C7" s="184">
         <v>1.03</v>
       </c>
-      <c r="D7" s="183">
+      <c r="D7" s="184">
         <v>1.03</v>
       </c>
-      <c r="E7" s="186">
+      <c r="E7" s="187">
         <v>0.2816</v>
       </c>
-      <c r="F7" s="183">
+      <c r="F7" s="184">
         <v>1.12</v>
       </c>
-      <c r="G7" s="183">
+      <c r="G7" s="184">
         <v>1.12</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:7">
-      <c r="A8" s="185" t="s">
+      <c r="A8" s="186" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="183">
+      <c r="B8" s="184">
         <v>1.32</v>
       </c>
-      <c r="C8" s="183">
+      <c r="C8" s="184">
         <v>1.03</v>
       </c>
-      <c r="D8" s="183">
+      <c r="D8" s="184">
         <v>1.03</v>
       </c>
-      <c r="E8" s="186">
+      <c r="E8" s="187">
         <v>0.2816</v>
       </c>
-      <c r="F8" s="183">
+      <c r="F8" s="184">
         <v>1.12</v>
       </c>
-      <c r="G8" s="183">
+      <c r="G8" s="184">
         <v>1.12</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:7">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="186" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="186">
+      <c r="B9" s="187">
         <v>0.1486</v>
       </c>
-      <c r="C9" s="186">
+      <c r="C9" s="187">
         <v>0.1321</v>
       </c>
-      <c r="D9" s="187">
+      <c r="D9" s="188">
         <v>0.1319</v>
       </c>
-      <c r="E9" s="200" t="s">
+      <c r="E9" s="201" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="187">
+      <c r="F9" s="188">
         <v>0.1815</v>
       </c>
-      <c r="G9" s="201">
+      <c r="G9" s="202">
         <v>0.1814</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:7">
-      <c r="A10" s="188"/>
-      <c r="B10" s="189" t="s">
+      <c r="A10" s="189"/>
+      <c r="B10" s="190" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="190" t="s">
+      <c r="C10" s="191" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="191"/>
-      <c r="E10" s="202" t="s">
+      <c r="D10" s="192"/>
+      <c r="E10" s="203" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="190" t="s">
+      <c r="F10" s="191" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="203"/>
+      <c r="G10" s="204"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="188"/>
-      <c r="B11" s="189"/>
-      <c r="C11" s="192" t="s">
+      <c r="A11" s="189"/>
+      <c r="B11" s="190"/>
+      <c r="C11" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="193" t="s">
+      <c r="D11" s="194" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="204" t="s">
+      <c r="E11" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="192" t="s">
+      <c r="F11" s="193" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="205" t="s">
+      <c r="G11" s="206" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:7">
-      <c r="A12" s="194" t="s">
+      <c r="A12" s="195" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="195">
+      <c r="B12" s="196">
         <v>92535386807.84</v>
       </c>
-      <c r="C12" s="196">
+      <c r="C12" s="197">
         <v>71614568816.64</v>
       </c>
-      <c r="D12" s="196">
+      <c r="D12" s="197">
         <v>71764601474.11</v>
       </c>
-      <c r="E12" s="206">
+      <c r="E12" s="207">
         <v>0.2894</v>
       </c>
-      <c r="F12" s="196">
+      <c r="F12" s="197">
         <v>61247068892.62</v>
       </c>
-      <c r="G12" s="207">
+      <c r="G12" s="208">
         <v>61297237980.93</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:7">
-      <c r="A13" s="197" t="s">
+      <c r="A13" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="198">
+      <c r="B13" s="199">
         <v>42419713739.8</v>
       </c>
-      <c r="C13" s="183">
+      <c r="C13" s="184">
         <v>36561011876.15</v>
       </c>
-      <c r="D13" s="183">
+      <c r="D13" s="184">
         <v>36710922749.21</v>
       </c>
-      <c r="E13" s="186">
+      <c r="E13" s="187">
         <v>0.1555</v>
       </c>
-      <c r="F13" s="183">
+      <c r="F13" s="184">
         <v>32878378815.09</v>
       </c>
-      <c r="G13" s="208">
+      <c r="G13" s="209">
         <v>32928431730.3</v>
       </c>
     </row>
@@ -5902,6 +5952,90 @@
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B10:B11"/>
   </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="1" width="15" style="1" customWidth="true"/>
+    <col min="2" max="2" width="17.7777777777778" style="1" customWidth="true"/>
+    <col min="3" max="3" width="16.6666666666667" style="1" customWidth="true"/>
+    <col min="4" max="4" width="9.55555555555556" style="1" customWidth="true"/>
+    <col min="5" max="5" width="13.2222222222222" style="1" customWidth="true"/>
+    <col min="6" max="16384" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" spans="5:7">
+      <c r="E2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -5924,85 +6058,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="2"/>
-      <c r="B1" s="163" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="164" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="164" t="s">
+      <c r="C1" s="165" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="164" t="s">
+      <c r="D1" s="165" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="172" t="s">
+      <c r="E1" s="173" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:5">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="166" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="166">
+      <c r="B2" s="167">
         <v>24027959841.71</v>
       </c>
-      <c r="C2" s="167">
+      <c r="C2" s="168">
         <v>26046744192.14</v>
       </c>
-      <c r="D2" s="167">
+      <c r="D2" s="168">
         <v>28695392176.35</v>
       </c>
-      <c r="E2" s="173">
+      <c r="E2" s="174">
         <v>33423299854.06</v>
       </c>
     </row>
     <row r="3" ht="20.25" spans="1:5">
-      <c r="A3" s="165" t="s">
+      <c r="A3" s="166" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="168">
+      <c r="B3" s="169">
         <v>1263228586.24</v>
       </c>
-      <c r="C3" s="169">
+      <c r="C3" s="170">
         <v>1837883052.39</v>
       </c>
-      <c r="D3" s="169">
+      <c r="D3" s="170">
         <v>1210384736.05</v>
       </c>
-      <c r="E3" s="174">
+      <c r="E3" s="175">
         <v>1485009157.52</v>
       </c>
     </row>
     <row r="4" ht="30" spans="1:5">
-      <c r="A4" s="165" t="s">
+      <c r="A4" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="170">
+      <c r="B4" s="171">
         <v>835983098.41</v>
       </c>
-      <c r="C4" s="169">
+      <c r="C4" s="170">
         <v>1494327018.02</v>
       </c>
-      <c r="D4" s="169">
+      <c r="D4" s="170">
         <v>1180977650.38</v>
       </c>
-      <c r="E4" s="174">
+      <c r="E4" s="175">
         <v>696476134.01</v>
       </c>
     </row>
     <row r="5" ht="20.25" spans="1:5">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="172" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="168">
+      <c r="B5" s="169">
         <v>1421831229.75</v>
       </c>
-      <c r="C5" s="169">
+      <c r="C5" s="170">
         <v>3395055319.93</v>
       </c>
-      <c r="D5" s="169">
+      <c r="D5" s="170">
         <v>2830339876.67</v>
       </c>
-      <c r="E5" s="174">
+      <c r="E5" s="175">
         <v>1474047049.14</v>
       </c>
     </row>
@@ -6033,106 +6167,106 @@
   </cols>
   <sheetData>
     <row r="1" ht="48.75" spans="1:8">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="149" t="s">
+      <c r="B1" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="149" t="s">
+      <c r="C1" s="150" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="149" t="s">
+      <c r="D1" s="150" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="149" t="s">
+      <c r="E1" s="150" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="149" t="s">
+      <c r="F1" s="150" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="149" t="s">
+      <c r="G1" s="150" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="157" t="s">
+      <c r="H1" s="158" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:8">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="151" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="151">
+      <c r="B2" s="152">
         <v>1188891051.3</v>
       </c>
-      <c r="C2" s="152">
+      <c r="C2" s="153">
         <v>5796505532.2</v>
       </c>
-      <c r="D2" s="153">
+      <c r="D2" s="154">
         <v>0.2051</v>
       </c>
-      <c r="E2" s="158">
+      <c r="E2" s="159">
         <v>394996314.03</v>
       </c>
-      <c r="F2" s="159">
+      <c r="F2" s="160">
         <v>0.0681</v>
       </c>
-      <c r="G2" s="160">
+      <c r="G2" s="161">
         <v>1583887365.33</v>
       </c>
-      <c r="H2" s="161">
+      <c r="H2" s="162">
         <v>0.2732</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:8">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="151" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="154">
+      <c r="B3" s="155">
         <v>925536348.03</v>
       </c>
-      <c r="C3" s="108">
+      <c r="C3" s="109">
         <v>4556048279.54</v>
       </c>
-      <c r="D3" s="155">
+      <c r="D3" s="156">
         <v>0.2031</v>
       </c>
-      <c r="E3" s="82" t="s">
+      <c r="E3" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="82" t="s">
+      <c r="F3" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="154">
+      <c r="G3" s="155">
         <v>925536348.03</v>
       </c>
-      <c r="H3" s="162">
+      <c r="H3" s="163">
         <v>0.2031</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:8">
-      <c r="A4" s="156" t="s">
+      <c r="A4" s="157" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="154">
+      <c r="B4" s="155">
         <v>970985880.7</v>
       </c>
-      <c r="C4" s="108">
+      <c r="C4" s="109">
         <v>4770689703.15</v>
       </c>
-      <c r="D4" s="155">
+      <c r="D4" s="156">
         <v>0.2035</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="154">
+      <c r="G4" s="155">
         <v>970985880.7</v>
       </c>
-      <c r="H4" s="162">
+      <c r="H4" s="163">
         <v>0.2035</v>
       </c>
     </row>
@@ -6160,915 +6294,915 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:4">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="113">
+      <c r="C1" s="114">
         <v>43830</v>
       </c>
-      <c r="D1" s="114" t="s">
+      <c r="D1" s="115" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="111"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="115" t="s">
+      <c r="A2" s="112"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="116" t="s">
+      <c r="D2" s="117" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="118" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:4">
-      <c r="A4" s="92" t="s">
+      <c r="A4" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="118" t="s">
+      <c r="B4" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="119">
+      <c r="C4" s="120">
         <v>18520991737.1</v>
       </c>
-      <c r="D4" s="120">
+      <c r="D4" s="121">
         <v>16131120733.54</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:4">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="97" t="s">
+      <c r="B5" s="98" t="s">
         <v>49</v>
       </c>
-      <c r="C5" s="121">
+      <c r="C5" s="122">
         <v>200728611.11</v>
       </c>
-      <c r="D5" s="122" t="s">
+      <c r="D5" s="123" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:4">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="97" t="s">
+      <c r="B6" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="123" t="s">
+      <c r="C6" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="124">
+      <c r="D6" s="125">
         <v>14441978.09</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:4">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="126" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="126">
+      <c r="C7" s="127">
         <v>2910172928.2</v>
       </c>
-      <c r="D7" s="122" t="s">
+      <c r="D7" s="123" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:4">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="126">
+      <c r="B8" s="78"/>
+      <c r="C8" s="127">
         <v>43004793.59</v>
       </c>
-      <c r="D8" s="124">
+      <c r="D8" s="125">
         <v>20958746.36</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:4">
-      <c r="A9" s="95" t="s">
+      <c r="A9" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="119" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="119">
+      <c r="C9" s="120">
         <v>12044542725.83</v>
       </c>
-      <c r="D9" s="127">
+      <c r="D9" s="128">
         <v>7352877748.87</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:4">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="96" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="118" t="s">
+      <c r="B10" s="119" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="119">
+      <c r="C10" s="120">
         <v>2654244964.25</v>
       </c>
-      <c r="D10" s="127">
+      <c r="D10" s="128">
         <v>2516886360.17</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:4">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="128" t="s">
+      <c r="B11" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="119">
+      <c r="C11" s="120">
         <v>52697167.86</v>
       </c>
-      <c r="D11" s="127">
+      <c r="D11" s="128">
         <v>447173258.65</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:4">
-      <c r="A12" s="95" t="s">
+      <c r="A12" s="96" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="128" t="s">
+      <c r="B12" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="119">
+      <c r="C12" s="120">
         <v>81742106.2</v>
       </c>
-      <c r="D12" s="127">
+      <c r="D12" s="128">
         <v>95070625.3</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:4">
-      <c r="A13" s="95" t="s">
+      <c r="A13" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="B13" s="118" t="s">
+      <c r="B13" s="119" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="119">
+      <c r="C13" s="120">
         <v>2102207239.4</v>
       </c>
-      <c r="D13" s="127">
+      <c r="D13" s="128">
         <v>1414414858.81</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:4">
-      <c r="A14" s="92" t="s">
+      <c r="A14" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="125" t="s">
+      <c r="B14" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="121">
+      <c r="C14" s="122">
         <v>881658973.69</v>
       </c>
-      <c r="D14" s="124">
+      <c r="D14" s="125">
         <v>818050025.02</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:4">
-      <c r="A15" s="95" t="s">
+      <c r="A15" s="96" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="129">
+      <c r="C15" s="130">
         <v>105344257.09</v>
       </c>
-      <c r="D15" s="127">
+      <c r="D15" s="128">
         <v>123197466.26</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="1:4">
-      <c r="A16" s="95" t="s">
+      <c r="A16" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="118" t="s">
+      <c r="B16" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="119">
+      <c r="C16" s="120">
         <v>3299684720.94</v>
       </c>
-      <c r="D16" s="127">
+      <c r="D16" s="128">
         <v>3004050606.9</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="1:4">
-      <c r="A17" s="130" t="s">
+      <c r="A17" s="131" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="77"/>
-      <c r="C17" s="126">
+      <c r="B17" s="78"/>
+      <c r="C17" s="127">
         <v>42897020225.26</v>
       </c>
-      <c r="D17" s="124">
+      <c r="D17" s="125">
         <v>31938242407.97</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:1">
-      <c r="A18" s="131" t="s">
+      <c r="A18" s="132" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="1:4">
-      <c r="A19" s="95" t="s">
+      <c r="A19" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="118" t="s">
+      <c r="B19" s="119" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="133" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="127">
+      <c r="D19" s="128">
         <v>3423527060.27</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:4">
-      <c r="A20" s="95" t="s">
+      <c r="A20" s="96" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="118" t="s">
+      <c r="B20" s="119" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="129">
+      <c r="C20" s="130">
         <v>465733312.28</v>
       </c>
-      <c r="D20" s="127">
+      <c r="D20" s="128">
         <v>571493790.74</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:4">
-      <c r="A21" s="95" t="s">
+      <c r="A21" s="96" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="118" t="s">
+      <c r="B21" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="C21" s="119">
+      <c r="C21" s="120">
         <v>2221512673.14</v>
       </c>
-      <c r="D21" s="127">
+      <c r="D21" s="128">
         <v>2203431122.03</v>
       </c>
     </row>
     <row r="22" ht="17.25" spans="1:4">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="125" t="s">
+      <c r="B22" s="126" t="s">
         <v>81</v>
       </c>
-      <c r="C22" s="126">
+      <c r="C22" s="127">
         <v>4933692937.19</v>
       </c>
-      <c r="D22" s="122" t="s">
+      <c r="D22" s="123" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="1:4">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="125" t="s">
+      <c r="B23" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="C23" s="121">
+      <c r="C23" s="122">
         <v>479040431.62</v>
       </c>
-      <c r="D23" s="122" t="s">
+      <c r="D23" s="123" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="1:4">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="118" t="s">
+      <c r="B24" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="C24" s="119">
+      <c r="C24" s="120">
         <v>2019525900.61</v>
       </c>
-      <c r="D24" s="127">
+      <c r="D24" s="128">
         <v>2453931501.54</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="1:4">
-      <c r="A25" s="95" t="s">
+      <c r="A25" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="118" t="s">
+      <c r="B25" s="119" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="119">
+      <c r="C25" s="120">
         <v>18903827062.42</v>
       </c>
-      <c r="D25" s="127">
+      <c r="D25" s="128">
         <v>13966725538.31</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="1:4">
-      <c r="A26" s="95" t="s">
+      <c r="A26" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="118" t="s">
+      <c r="B26" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="119">
+      <c r="C26" s="120">
         <v>3116490618.26</v>
       </c>
-      <c r="D26" s="127">
+      <c r="D26" s="128">
         <v>6508628249.99</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:4">
-      <c r="A27" s="95" t="s">
+      <c r="A27" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="118" t="s">
+      <c r="B27" s="119" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="119">
+      <c r="C27" s="120">
         <v>10008036356.04</v>
       </c>
-      <c r="D27" s="127">
+      <c r="D27" s="128">
         <v>6662097473.89</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="1:4">
-      <c r="A28" s="95" t="s">
+      <c r="A28" s="96" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="118" t="s">
+      <c r="B28" s="119" t="s">
         <v>93</v>
       </c>
-      <c r="C28" s="129">
+      <c r="C28" s="130">
         <v>582627977.2</v>
       </c>
-      <c r="D28" s="127">
+      <c r="D28" s="128">
         <v>585212743.77</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:4">
-      <c r="A29" s="95" t="s">
+      <c r="A29" s="96" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="118" t="s">
+      <c r="B29" s="119" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="119">
+      <c r="C29" s="120">
         <v>3564540458.8</v>
       </c>
-      <c r="D29" s="127">
+      <c r="D29" s="128">
         <v>590365319.2</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="1:4">
-      <c r="A30" s="95" t="s">
+      <c r="A30" s="96" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="118" t="s">
+      <c r="B30" s="119" t="s">
         <v>97</v>
       </c>
-      <c r="C30" s="119">
+      <c r="C30" s="120">
         <v>1714173133.47</v>
       </c>
-      <c r="D30" s="127">
+      <c r="D30" s="128">
         <v>1645861187.53</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="1:4">
-      <c r="A31" s="95" t="s">
+      <c r="A31" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="118" t="s">
+      <c r="B31" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="119">
+      <c r="C31" s="120">
         <v>1066079111.56</v>
       </c>
-      <c r="D31" s="127">
+      <c r="D31" s="128">
         <v>584462905.44</v>
       </c>
     </row>
     <row r="32" ht="17.25" spans="1:4">
-      <c r="A32" s="95" t="s">
+      <c r="A32" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="118" t="s">
+      <c r="B32" s="119" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="129">
+      <c r="C32" s="130">
         <v>563086609.99</v>
       </c>
-      <c r="D32" s="127">
+      <c r="D32" s="128">
         <v>630622173.43</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="1:4">
-      <c r="A33" s="130" t="s">
+      <c r="A33" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="77"/>
-      <c r="C33" s="126">
+      <c r="B33" s="78"/>
+      <c r="C33" s="127">
         <v>49638366582.58</v>
       </c>
-      <c r="D33" s="124">
+      <c r="D33" s="125">
         <v>39826359066.14</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="1:4">
-      <c r="A34" s="133" t="s">
+      <c r="A34" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="B34" s="134"/>
-      <c r="C34" s="135">
+      <c r="B34" s="135"/>
+      <c r="C34" s="136">
         <v>92535386807.84</v>
       </c>
-      <c r="D34" s="124">
+      <c r="D34" s="125">
         <v>71764601474.11</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="1:4">
-      <c r="A35" s="111" t="s">
+      <c r="A35" s="112" t="s">
         <v>104</v>
       </c>
-      <c r="B35" s="112" t="s">
+      <c r="B35" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="136" t="s">
+      <c r="C35" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="114" t="s">
+      <c r="D35" s="115" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="111"/>
-      <c r="B36" s="112"/>
-      <c r="C36" s="115" t="s">
+      <c r="A36" s="112"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="116" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="137" t="s">
+      <c r="D36" s="138" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="138" t="s">
+      <c r="A37" s="139" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="1:4">
-      <c r="A38" s="128" t="s">
+      <c r="A38" s="129" t="s">
         <v>107</v>
       </c>
-      <c r="B38" s="118" t="s">
+      <c r="B38" s="119" t="s">
         <v>108</v>
       </c>
-      <c r="C38" s="139">
+      <c r="C38" s="140">
         <v>6053374642.5</v>
       </c>
-      <c r="D38" s="140">
+      <c r="D38" s="141">
         <v>8585129399.63</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="1:4">
-      <c r="A39" s="128" t="s">
+      <c r="A39" s="129" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="77"/>
-      <c r="C39" s="139">
+      <c r="B39" s="78"/>
+      <c r="C39" s="140">
         <v>3778707.92</v>
       </c>
-      <c r="D39" s="141">
+      <c r="D39" s="142">
         <v>10269542.51</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="1:4">
-      <c r="A40" s="128" t="s">
+      <c r="A40" s="129" t="s">
         <v>110</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="139">
+      <c r="B40" s="78"/>
+      <c r="C40" s="140">
         <v>30000000</v>
       </c>
-      <c r="D40" s="142" t="s">
+      <c r="D40" s="143" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="41" ht="17.25" spans="1:4">
-      <c r="A41" s="128" t="s">
+      <c r="A41" s="129" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="118" t="s">
+      <c r="B41" s="119" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="139">
+      <c r="C41" s="140">
         <v>11988256010.34</v>
       </c>
-      <c r="D41" s="141">
+      <c r="D41" s="142">
         <v>7887386577.55</v>
       </c>
     </row>
     <row r="42" ht="17.25" spans="1:4">
-      <c r="A42" s="128" t="s">
+      <c r="A42" s="129" t="s">
         <v>113</v>
       </c>
-      <c r="B42" s="118" t="s">
+      <c r="B42" s="119" t="s">
         <v>114</v>
       </c>
-      <c r="C42" s="143">
+      <c r="C42" s="144">
         <v>669948930.72</v>
       </c>
-      <c r="D42" s="141">
+      <c r="D42" s="142">
         <v>467611291.44</v>
       </c>
     </row>
     <row r="43" ht="17.25" spans="1:4">
-      <c r="A43" s="128" t="s">
+      <c r="A43" s="129" t="s">
         <v>115</v>
       </c>
-      <c r="B43" s="118" t="s">
+      <c r="B43" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="C43" s="139">
+      <c r="C43" s="140">
         <v>3281062510.03</v>
       </c>
-      <c r="D43" s="141">
+      <c r="D43" s="142">
         <v>2967505538.65</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="1:4">
-      <c r="A44" s="128" t="s">
+      <c r="A44" s="129" t="s">
         <v>117</v>
       </c>
-      <c r="B44" s="118" t="s">
+      <c r="B44" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="C44" s="139">
+      <c r="C44" s="140">
         <v>1139144005.66</v>
       </c>
-      <c r="D44" s="141">
+      <c r="D44" s="142">
         <v>639296041.44</v>
       </c>
     </row>
     <row r="45" ht="17.25" spans="1:4">
-      <c r="A45" s="128" t="s">
+      <c r="A45" s="129" t="s">
         <v>119</v>
       </c>
-      <c r="B45" s="118" t="s">
+      <c r="B45" s="119" t="s">
         <v>120</v>
       </c>
-      <c r="C45" s="139">
+      <c r="C45" s="140">
         <v>4707159830.62</v>
       </c>
-      <c r="D45" s="141">
+      <c r="D45" s="142">
         <v>4539677152.31</v>
       </c>
     </row>
     <row r="46" ht="17.25" spans="1:4">
-      <c r="A46" s="128" t="s">
+      <c r="A46" s="129" t="s">
         <v>121</v>
       </c>
-      <c r="B46" s="118" t="s">
+      <c r="B46" s="119" t="s">
         <v>122</v>
       </c>
-      <c r="C46" s="139">
+      <c r="C46" s="140">
         <v>2091892291.74</v>
       </c>
-      <c r="D46" s="141">
+      <c r="D46" s="142">
         <v>273222821.65</v>
       </c>
     </row>
     <row r="47" ht="17.25" spans="1:4">
-      <c r="A47" s="128" t="s">
+      <c r="A47" s="129" t="s">
         <v>123</v>
       </c>
-      <c r="B47" s="118" t="s">
+      <c r="B47" s="119" t="s">
         <v>124</v>
       </c>
-      <c r="C47" s="139">
+      <c r="C47" s="140">
         <v>1017446858.5</v>
       </c>
-      <c r="D47" s="141">
+      <c r="D47" s="142">
         <v>999378905.37</v>
       </c>
     </row>
     <row r="48" ht="17.25" spans="1:4">
-      <c r="A48" s="144" t="s">
+      <c r="A48" s="145" t="s">
         <v>125</v>
       </c>
-      <c r="B48" s="77"/>
-      <c r="C48" s="139">
+      <c r="B48" s="78"/>
+      <c r="C48" s="140">
         <v>30982063788.03</v>
       </c>
-      <c r="D48" s="141">
+      <c r="D48" s="142">
         <v>26369477270.55</v>
       </c>
     </row>
     <row r="49" ht="17" customHeight="true" spans="1:1">
-      <c r="A49" s="138" t="s">
+      <c r="A49" s="139" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="50" ht="17" customHeight="true" spans="1:4">
-      <c r="A50" s="128" t="s">
+      <c r="A50" s="129" t="s">
         <v>127</v>
       </c>
-      <c r="B50" s="118" t="s">
+      <c r="B50" s="119" t="s">
         <v>128</v>
       </c>
-      <c r="C50" s="139">
+      <c r="C50" s="140">
         <v>6539556784.41</v>
       </c>
-      <c r="D50" s="141">
+      <c r="D50" s="142">
         <v>998287835.19</v>
       </c>
     </row>
     <row r="51" ht="17.25" spans="1:4">
-      <c r="A51" s="128" t="s">
+      <c r="A51" s="129" t="s">
         <v>129</v>
       </c>
-      <c r="B51" s="118" t="s">
+      <c r="B51" s="119" t="s">
         <v>130</v>
       </c>
-      <c r="C51" s="139">
+      <c r="C51" s="140">
         <v>10597985016.52</v>
       </c>
-      <c r="D51" s="141">
+      <c r="D51" s="142">
         <v>6405035926.4</v>
       </c>
     </row>
     <row r="52" ht="17.25" spans="1:4">
-      <c r="A52" s="128" t="s">
+      <c r="A52" s="129" t="s">
         <v>131</v>
       </c>
-      <c r="B52" s="118" t="s">
+      <c r="B52" s="119" t="s">
         <v>132</v>
       </c>
-      <c r="C52" s="139">
+      <c r="C52" s="140">
         <v>78310329.77</v>
       </c>
-      <c r="D52" s="141">
+      <c r="D52" s="142">
         <v>83655025.08</v>
       </c>
     </row>
     <row r="53" ht="17.25" spans="1:4">
-      <c r="A53" s="128" t="s">
+      <c r="A53" s="129" t="s">
         <v>133</v>
       </c>
-      <c r="B53" s="118" t="s">
+      <c r="B53" s="119" t="s">
         <v>134</v>
       </c>
-      <c r="C53" s="143">
+      <c r="C53" s="144">
         <v>204466446.73</v>
       </c>
-      <c r="D53" s="141">
+      <c r="D53" s="142">
         <v>142715259.71</v>
       </c>
     </row>
     <row r="54" ht="17.25" spans="1:4">
-      <c r="A54" s="128" t="s">
+      <c r="A54" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="B54" s="118" t="s">
+      <c r="B54" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="C54" s="143">
+      <c r="C54" s="144">
         <v>201496411.81</v>
       </c>
-      <c r="D54" s="141">
+      <c r="D54" s="142">
         <v>152944183.19</v>
       </c>
     </row>
     <row r="55" ht="17.25" spans="1:4">
-      <c r="A55" s="128" t="s">
+      <c r="A55" s="129" t="s">
         <v>137</v>
       </c>
-      <c r="B55" s="118" t="s">
+      <c r="B55" s="119" t="s">
         <v>99</v>
       </c>
-      <c r="C55" s="139">
+      <c r="C55" s="140">
         <v>1387699268.53</v>
       </c>
-      <c r="D55" s="141">
+      <c r="D55" s="142">
         <v>537090946.18</v>
       </c>
     </row>
     <row r="56" ht="17.25" spans="1:4">
-      <c r="A56" s="128" t="s">
+      <c r="A56" s="129" t="s">
         <v>138</v>
       </c>
-      <c r="B56" s="77"/>
-      <c r="C56" s="139">
+      <c r="B56" s="78"/>
+      <c r="C56" s="140">
         <v>50197780.66</v>
       </c>
-      <c r="D56" s="141">
+      <c r="D56" s="142">
         <v>11540645.33</v>
       </c>
     </row>
     <row r="57" ht="17.25" spans="1:4">
-      <c r="A57" s="145" t="s">
+      <c r="A57" s="146" t="s">
         <v>139</v>
       </c>
-      <c r="B57" s="77"/>
-      <c r="C57" s="139">
+      <c r="B57" s="78"/>
+      <c r="C57" s="140">
         <v>19059712038.43</v>
       </c>
-      <c r="D57" s="141">
+      <c r="D57" s="142">
         <v>8331269821.08</v>
       </c>
     </row>
     <row r="58" ht="17.25" spans="1:4">
-      <c r="A58" s="145" t="s">
+      <c r="A58" s="146" t="s">
         <v>140</v>
       </c>
-      <c r="B58" s="77"/>
-      <c r="C58" s="139">
+      <c r="B58" s="78"/>
+      <c r="C58" s="140">
         <v>50041775826.46</v>
       </c>
-      <c r="D58" s="141">
+      <c r="D58" s="142">
         <v>34700747091.63</v>
       </c>
     </row>
     <row r="59" ht="17.25" spans="1:1">
-      <c r="A59" s="138" t="s">
+      <c r="A59" s="139" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="60" ht="17.25" spans="1:4">
-      <c r="A60" s="128" t="s">
+      <c r="A60" s="129" t="s">
         <v>142</v>
       </c>
-      <c r="B60" s="118" t="s">
+      <c r="B60" s="119" t="s">
         <v>143</v>
       </c>
-      <c r="C60" s="139">
+      <c r="C60" s="140">
         <v>4414585265</v>
       </c>
-      <c r="D60" s="141">
+      <c r="D60" s="142">
         <v>4418767258</v>
       </c>
     </row>
     <row r="61" ht="17.25" spans="1:4">
-      <c r="A61" s="128" t="s">
+      <c r="A61" s="129" t="s">
         <v>144</v>
       </c>
-      <c r="B61" s="118" t="s">
+      <c r="B61" s="119" t="s">
         <v>145</v>
       </c>
-      <c r="C61" s="143">
+      <c r="C61" s="144">
         <v>768938484.9</v>
       </c>
-      <c r="D61" s="146" t="s">
+      <c r="D61" s="147" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="62" ht="17.25" spans="1:4">
-      <c r="A62" s="128" t="s">
+      <c r="A62" s="129" t="s">
         <v>146</v>
       </c>
-      <c r="B62" s="118" t="s">
+      <c r="B62" s="119" t="s">
         <v>147</v>
       </c>
-      <c r="C62" s="139">
+      <c r="C62" s="140">
         <v>16124018594.16</v>
       </c>
-      <c r="D62" s="141">
+      <c r="D62" s="142">
         <v>16219619165.67</v>
       </c>
     </row>
     <row r="63" ht="17.25" spans="1:4">
-      <c r="A63" s="128" t="s">
+      <c r="A63" s="129" t="s">
         <v>148</v>
       </c>
-      <c r="B63" s="118" t="s">
+      <c r="B63" s="119" t="s">
         <v>149</v>
       </c>
-      <c r="C63" s="139">
+      <c r="C63" s="140">
         <v>-454761306.79</v>
       </c>
-      <c r="D63" s="141">
+      <c r="D63" s="142">
         <v>-200928467.28</v>
       </c>
     </row>
     <row r="64" ht="17.25" spans="1:4">
-      <c r="A64" s="128" t="s">
+      <c r="A64" s="129" t="s">
         <v>150</v>
       </c>
-      <c r="B64" s="118" t="s">
+      <c r="B64" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="139">
+      <c r="C64" s="140">
         <v>1002715607.38</v>
       </c>
-      <c r="D64" s="141">
+      <c r="D64" s="142">
         <v>527184297.85</v>
       </c>
     </row>
     <row r="65" ht="17.25" spans="1:4">
-      <c r="A65" s="128" t="s">
+      <c r="A65" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="B65" s="77"/>
-      <c r="C65" s="143">
+      <c r="B65" s="78"/>
+      <c r="C65" s="144">
         <v>225783247.34</v>
       </c>
-      <c r="D65" s="141">
+      <c r="D65" s="142">
         <v>185084995.61</v>
       </c>
     </row>
     <row r="66" ht="17.25" spans="1:4">
-      <c r="A66" s="128" t="s">
+      <c r="A66" s="129" t="s">
         <v>153</v>
       </c>
-      <c r="B66" s="118" t="s">
+      <c r="B66" s="119" t="s">
         <v>154</v>
       </c>
-      <c r="C66" s="143">
+      <c r="C66" s="144">
         <v>601241237.54</v>
       </c>
-      <c r="D66" s="141">
+      <c r="D66" s="142">
         <v>601132890.32</v>
       </c>
     </row>
     <row r="67" ht="17.25" spans="1:4">
-      <c r="A67" s="128" t="s">
+      <c r="A67" s="129" t="s">
         <v>155</v>
       </c>
-      <c r="B67" s="118" t="s">
+      <c r="B67" s="119" t="s">
         <v>156</v>
       </c>
-      <c r="C67" s="139">
+      <c r="C67" s="140">
         <v>19737192610.27</v>
       </c>
-      <c r="D67" s="141">
+      <c r="D67" s="142">
         <v>14960062609.04</v>
       </c>
     </row>
     <row r="68" ht="17.25" spans="1:4">
-      <c r="A68" s="145" t="s">
+      <c r="A68" s="146" t="s">
         <v>157</v>
       </c>
-      <c r="B68" s="77"/>
-      <c r="C68" s="139">
+      <c r="B68" s="78"/>
+      <c r="C68" s="140">
         <v>42419713739.8</v>
       </c>
-      <c r="D68" s="141">
+      <c r="D68" s="142">
         <v>36710922749.21</v>
       </c>
     </row>
     <row r="69" ht="17.25" spans="1:4">
-      <c r="A69" s="145" t="s">
+      <c r="A69" s="146" t="s">
         <v>158</v>
       </c>
-      <c r="B69" s="118" t="s">
+      <c r="B69" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="139">
+      <c r="C69" s="140">
         <v>73897241.58</v>
       </c>
-      <c r="D69" s="141">
+      <c r="D69" s="142">
         <v>352931633.27</v>
       </c>
     </row>
     <row r="70" ht="17.25" spans="1:4">
-      <c r="A70" s="145" t="s">
+      <c r="A70" s="146" t="s">
         <v>160</v>
       </c>
-      <c r="B70" s="77"/>
-      <c r="C70" s="139">
+      <c r="B70" s="78"/>
+      <c r="C70" s="140">
         <v>42493610981.38</v>
       </c>
-      <c r="D70" s="141">
+      <c r="D70" s="142">
         <v>37063854382.48</v>
       </c>
     </row>
     <row r="71" ht="17.25" spans="1:4">
-      <c r="A71" s="133" t="s">
+      <c r="A71" s="134" t="s">
         <v>161</v>
       </c>
-      <c r="B71" s="134"/>
-      <c r="C71" s="147">
+      <c r="B71" s="135"/>
+      <c r="C71" s="148">
         <v>92535386807.84</v>
       </c>
-      <c r="D71" s="148">
+      <c r="D71" s="149">
         <v>71764601474.11</v>
       </c>
     </row>
@@ -7103,879 +7237,879 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:6">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="75" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="44" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="77" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:6">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="72" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="49">
         <v>112193396064.26</v>
       </c>
-      <c r="D3" s="27">
+      <c r="D3" s="28">
         <v>90942694239.83</v>
       </c>
-      <c r="E3" s="97" t="s">
+      <c r="E3" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F3" s="98" t="s">
+      <c r="F3" s="99" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:6">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="50">
         <v>92649616205.69</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="50">
         <v>74642182863.72</v>
       </c>
-      <c r="E4" s="97" t="s">
+      <c r="E4" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F4" s="99" t="s">
+      <c r="F4" s="100" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:6">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="54">
         <v>279618311.94</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="55">
         <v>222303763.8</v>
       </c>
-      <c r="E5" s="100">
+      <c r="E5" s="101">
         <v>33567.67</v>
       </c>
-      <c r="F5" s="79">
+      <c r="F5" s="80">
         <v>34488.41</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:6">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="66" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="61" t="s">
         <v>176</v>
       </c>
-      <c r="C6" s="48">
+      <c r="C6" s="49">
         <v>1996887445.06</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="50">
         <v>1825817910.47</v>
       </c>
-      <c r="E6" s="97"/>
-      <c r="F6" s="99" t="s">
+      <c r="E6" s="98"/>
+      <c r="F6" s="100" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:6">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="53" t="s">
         <v>178</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="54">
         <v>9699267908.83</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="55">
         <v>8414610190.56</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="54">
         <v>10317090.62</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="55">
         <v>9168832.03</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:6">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="66" t="s">
         <v>179</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="49">
         <v>1193281876</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="50">
         <v>984314148.53</v>
       </c>
-      <c r="E8" s="97" t="s">
+      <c r="E8" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F8" s="99" t="s">
+      <c r="F8" s="100" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:6">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="53" t="s">
         <v>182</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="54">
         <v>682991065.31</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="55">
         <v>286430888.05</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="54">
         <v>4939129.76</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="55">
         <v>33529866.32</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:6">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="66" t="s">
         <v>183</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="48">
+      <c r="B10" s="3"/>
+      <c r="C10" s="49">
         <v>900620301.08</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="50">
         <v>644167308.71</v>
       </c>
-      <c r="E10" s="48">
+      <c r="E10" s="49">
         <v>25181200.44</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="68">
         <v>4576.72</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:6">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="85" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="48">
+      <c r="B11" s="3"/>
+      <c r="C11" s="49">
         <v>285283463.71</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="50">
         <v>397659268.76</v>
       </c>
-      <c r="E11" s="48">
+      <c r="E11" s="49">
         <v>20257990.4</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="50">
         <v>25977337.51</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:6">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="61" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="49">
         <v>740361688.71</v>
       </c>
-      <c r="D12" s="49">
+      <c r="D12" s="50">
         <v>212969288.91</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F12" s="99" t="s">
+      <c r="F12" s="100" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:6">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="49">
         <v>1075803394.65</v>
       </c>
-      <c r="D13" s="49">
+      <c r="D13" s="50">
         <v>1166485997.95</v>
       </c>
-      <c r="E13" s="48">
+      <c r="E13" s="49">
         <v>5833980.63</v>
       </c>
-      <c r="F13" s="49">
+      <c r="F13" s="50">
         <v>171104727.65</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:6">
-      <c r="A14" s="65" t="s">
+      <c r="A14" s="66" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="48">
+      <c r="B14" s="3"/>
+      <c r="C14" s="49">
         <v>97816023.63</v>
       </c>
-      <c r="D14" s="49">
+      <c r="D14" s="50">
         <v>37319918.07</v>
       </c>
-      <c r="E14" s="97" t="s">
+      <c r="E14" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F14" s="99" t="s">
+      <c r="F14" s="100" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:6">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="66" t="s">
         <v>190</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="61" t="s">
         <v>191</v>
       </c>
-      <c r="C15" s="48">
+      <c r="C15" s="49">
         <v>350137339.23</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D15" s="68">
         <v>5784709.35</v>
       </c>
-      <c r="E15" s="48">
+      <c r="E15" s="49">
         <v>6892164.39</v>
       </c>
-      <c r="F15" s="99" t="s">
+      <c r="F15" s="100" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="1:6">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="66" t="s">
         <v>192</v>
       </c>
-      <c r="B16" s="60" t="s">
+      <c r="B16" s="61" t="s">
         <v>193</v>
       </c>
-      <c r="C16" s="48">
+      <c r="C16" s="49">
         <v>237999735.04</v>
       </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="97" t="s">
+      <c r="D16" s="83"/>
+      <c r="E16" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F16" s="99" t="s">
+      <c r="F16" s="100" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="1:6">
-      <c r="A17" s="65" t="s">
+      <c r="A17" s="66" t="s">
         <v>194</v>
       </c>
-      <c r="B17" s="60" t="s">
+      <c r="B17" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="C17" s="48">
+      <c r="C17" s="49">
         <v>178620910.23</v>
       </c>
-      <c r="D17" s="49">
+      <c r="D17" s="50">
         <v>103540525.99</v>
       </c>
-      <c r="E17" s="97" t="s">
+      <c r="E17" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="99" t="s">
+      <c r="F17" s="100" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:6">
-      <c r="A18" s="65" t="s">
+      <c r="A18" s="66" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="C18" s="48">
+      <c r="C18" s="49">
         <v>32806730.61</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="50">
         <v>19187676.04</v>
       </c>
-      <c r="E18" s="97" t="s">
+      <c r="E18" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F18" s="99" t="s">
+      <c r="F18" s="100" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="1:6">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="47" t="s">
         <v>198</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="53">
+      <c r="B19" s="3"/>
+      <c r="C19" s="54">
         <v>7408608298.14</v>
       </c>
-      <c r="D19" s="54">
+      <c r="D19" s="55">
         <v>5817976850.18</v>
       </c>
-      <c r="E19" s="53">
+      <c r="E19" s="54">
         <v>2563643.03</v>
       </c>
-      <c r="F19" s="54">
+      <c r="F19" s="55">
         <v>195431273.53</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:6">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="48" t="s">
         <v>199</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="61" t="s">
         <v>200</v>
       </c>
-      <c r="C20" s="48">
+      <c r="C20" s="49">
         <v>213003573.49</v>
       </c>
-      <c r="D20" s="49">
+      <c r="D20" s="50">
         <v>148049933.34</v>
       </c>
-      <c r="E20" s="48">
+      <c r="E20" s="49">
         <v>5191019.24</v>
       </c>
-      <c r="F20" s="99"/>
+      <c r="F20" s="100"/>
     </row>
     <row r="21" ht="17.25" spans="1:6">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="61" t="s">
         <v>202</v>
       </c>
-      <c r="C21" s="48">
+      <c r="C21" s="49">
         <v>195300786.51</v>
       </c>
-      <c r="D21" s="49">
+      <c r="D21" s="50">
         <v>98620082.51</v>
       </c>
-      <c r="E21" s="97" t="s">
+      <c r="E21" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F21" s="99" t="s">
+      <c r="F21" s="100" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="22" ht="17.25" spans="1:6">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="48">
+      <c r="B22" s="3"/>
+      <c r="C22" s="49">
         <v>7426311085.12</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="50">
         <v>5867406701.01</v>
       </c>
-      <c r="E22" s="48">
+      <c r="E22" s="49">
         <v>2627376.21</v>
       </c>
-      <c r="F22" s="49">
+      <c r="F22" s="50">
         <v>195431273.53</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="1:6">
-      <c r="A23" s="51" t="s">
+      <c r="A23" s="52" t="s">
         <v>204</v>
       </c>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="C23" s="53">
+      <c r="C23" s="54">
         <v>1801517474.48</v>
       </c>
-      <c r="D23" s="54">
+      <c r="D23" s="55">
         <v>1403280110.74</v>
       </c>
-      <c r="E23" s="53">
+      <c r="E23" s="54">
         <v>1543903.97</v>
       </c>
-      <c r="F23" s="54">
+      <c r="F23" s="55">
         <v>49117644.41</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="1:6">
-      <c r="A24" s="71" t="s">
+      <c r="A24" s="72" t="s">
         <v>206</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="48">
+      <c r="B24" s="3"/>
+      <c r="C24" s="49">
         <v>5624793610.64</v>
       </c>
-      <c r="D24" s="49">
+      <c r="D24" s="50">
         <v>4464126590.27</v>
       </c>
-      <c r="E24" s="48">
+      <c r="E24" s="49">
         <v>1083472.24</v>
       </c>
-      <c r="F24" s="49">
+      <c r="F24" s="50">
         <v>146313629.12</v>
       </c>
     </row>
     <row r="25" ht="20.25" spans="1:6">
-      <c r="A25" s="86" t="s">
+      <c r="A25" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="48">
+      <c r="B25" s="3"/>
+      <c r="C25" s="49">
         <v>2123517.28</v>
       </c>
-      <c r="D25" s="49">
+      <c r="D25" s="50">
         <v>43047655.76</v>
       </c>
-      <c r="E25" s="101" t="s">
+      <c r="E25" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="F25" s="102" t="s">
+      <c r="F25" s="103" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="58" t="s">
+      <c r="A26" s="59" t="s">
         <v>209</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="103"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="104"/>
     </row>
     <row r="27" ht="17.25" spans="1:6">
-      <c r="A27" s="87" t="s">
+      <c r="A27" s="88" t="s">
         <v>210</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="25">
+      <c r="B27" s="3"/>
+      <c r="C27" s="26">
         <v>5624793610.64</v>
       </c>
-      <c r="D27" s="88">
+      <c r="D27" s="89">
         <v>4464126590.27</v>
       </c>
-      <c r="E27" s="25">
+      <c r="E27" s="26">
         <v>1083472.24</v>
       </c>
-      <c r="F27" s="88">
+      <c r="F27" s="89">
         <v>146313629.12</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="1:6">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="66" t="s">
         <v>211</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="61" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="82" t="s">
+      <c r="D28" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="97" t="s">
+      <c r="E28" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F28" s="99" t="s">
+      <c r="F28" s="100" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="58" t="s">
+      <c r="A29" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="103"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="78"/>
+      <c r="F29" s="104"/>
     </row>
     <row r="30" ht="17.25" spans="1:6">
-      <c r="A30" s="87" t="s">
+      <c r="A30" s="88" t="s">
         <v>213</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="26">
         <v>5796505532.2</v>
       </c>
-      <c r="D30" s="88">
+      <c r="D30" s="89">
         <v>4555906237.39</v>
       </c>
-      <c r="E30" s="25">
+      <c r="E30" s="26">
         <v>1083472.24</v>
       </c>
-      <c r="F30" s="88">
+      <c r="F30" s="89">
         <v>146313629.12</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="1:6">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="27">
+      <c r="B31" s="64"/>
+      <c r="C31" s="28">
         <v>171711921.56</v>
       </c>
-      <c r="D31" s="49">
+      <c r="D31" s="50">
         <v>91779647.12</v>
       </c>
-      <c r="E31" s="98" t="s">
+      <c r="E31" s="99" t="s">
         <v>171</v>
       </c>
-      <c r="F31" s="99" t="s">
+      <c r="F31" s="100" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="32" ht="17.25" spans="1:6">
-      <c r="A32" s="41" t="s">
+      <c r="A32" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="B32" s="90" t="s">
+      <c r="B32" s="91" t="s">
         <v>163</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="C32" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="D32" s="43" t="s">
+      <c r="D32" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="E32" s="104" t="s">
+      <c r="E32" s="105" t="s">
         <v>164</v>
       </c>
-      <c r="F32" s="74" t="s">
+      <c r="F32" s="75" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="41"/>
-      <c r="B33" s="90"/>
-      <c r="C33" s="44" t="s">
+      <c r="A33" s="42"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="D33" s="91" t="s">
+      <c r="D33" s="92" t="s">
         <v>167</v>
       </c>
-      <c r="E33" s="105" t="s">
+      <c r="E33" s="106" t="s">
         <v>168</v>
       </c>
-      <c r="F33" s="80" t="s">
+      <c r="F33" s="81" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="1:6">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="72" t="s">
         <v>215</v>
       </c>
-      <c r="B34" s="23"/>
-      <c r="C34" s="48">
+      <c r="B34" s="24"/>
+      <c r="C34" s="49">
         <v>403822743.78</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D34" s="28">
         <v>305674794.42</v>
       </c>
-      <c r="E34" s="97" t="s">
+      <c r="E34" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F34" s="106" t="s">
+      <c r="F34" s="107" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="35" ht="17.25" spans="1:6">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="48" t="s">
         <v>216</v>
       </c>
-      <c r="B35" s="23"/>
-      <c r="C35" s="48">
+      <c r="B35" s="24"/>
+      <c r="C35" s="49">
         <v>403732053.04</v>
       </c>
-      <c r="D35" s="49">
+      <c r="D35" s="50">
         <v>307354065.02</v>
       </c>
-      <c r="E35" s="97" t="s">
+      <c r="E35" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F35" s="102" t="s">
+      <c r="F35" s="103" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="36" ht="17.25" spans="1:6">
-      <c r="A36" s="47" t="s">
+      <c r="A36" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="B36" s="23"/>
-      <c r="C36" s="48">
+      <c r="B36" s="24"/>
+      <c r="C36" s="49">
         <v>311887070.53</v>
       </c>
-      <c r="D36" s="82" t="s">
+      <c r="D36" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="97" t="s">
+      <c r="E36" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F36" s="102" t="s">
+      <c r="F36" s="103" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="37" ht="17.25" spans="1:6">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="B37" s="92" t="s">
+      <c r="B37" s="93" t="s">
         <v>219</v>
       </c>
-      <c r="C37" s="48">
+      <c r="C37" s="49">
         <v>313946990.35</v>
       </c>
-      <c r="D37" s="82" t="s">
+      <c r="D37" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="97" t="s">
+      <c r="E37" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F37" s="102" t="s">
+      <c r="F37" s="103" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="1:6">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="93" t="s">
         <v>219</v>
       </c>
-      <c r="C38" s="48">
+      <c r="C38" s="49">
         <v>2059919.82</v>
       </c>
-      <c r="D38" s="82" t="s">
+      <c r="D38" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="97" t="s">
+      <c r="E38" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F38" s="102" t="s">
+      <c r="F38" s="103" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="1:6">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="48" t="s">
         <v>221</v>
       </c>
-      <c r="B39" s="92" t="s">
+      <c r="B39" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="C39" s="48">
+      <c r="C39" s="49">
         <v>91844982.51</v>
       </c>
-      <c r="D39" s="49">
+      <c r="D39" s="50">
         <v>307354065.02</v>
       </c>
-      <c r="E39" s="97" t="s">
+      <c r="E39" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F39" s="102" t="s">
+      <c r="F39" s="103" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="1:6">
-      <c r="A40" s="65" t="s">
+      <c r="A40" s="66" t="s">
         <v>223</v>
       </c>
-      <c r="B40" s="92" t="s">
+      <c r="B40" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="C40" s="68" t="s">
+      <c r="C40" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="49">
+      <c r="D40" s="50">
         <v>133486505.05</v>
       </c>
-      <c r="E40" s="97" t="s">
+      <c r="E40" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F40" s="102" t="s">
+      <c r="F40" s="103" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="41" ht="17.25" spans="1:6">
-      <c r="A41" s="65" t="s">
+      <c r="A41" s="66" t="s">
         <v>224</v>
       </c>
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="C41" s="48">
+      <c r="C41" s="49">
         <v>91844982.51</v>
       </c>
-      <c r="D41" s="49">
+      <c r="D41" s="50">
         <v>173867559.97</v>
       </c>
-      <c r="E41" s="97" t="s">
+      <c r="E41" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F41" s="102" t="s">
+      <c r="F41" s="103" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="42" ht="17.25" spans="1:6">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="48" t="s">
         <v>225</v>
       </c>
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="93" t="s">
         <v>222</v>
       </c>
-      <c r="C42" s="93">
+      <c r="C42" s="94">
         <v>90690.74</v>
       </c>
-      <c r="D42" s="67">
+      <c r="D42" s="68">
         <v>1679270.6</v>
       </c>
-      <c r="E42" s="97" t="s">
+      <c r="E42" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F42" s="102" t="s">
+      <c r="F42" s="103" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="43" ht="17.25" spans="1:6">
-      <c r="A43" s="71" t="s">
+      <c r="A43" s="72" t="s">
         <v>226</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="48">
+      <c r="B43" s="24"/>
+      <c r="C43" s="49">
         <v>6028616354.42</v>
       </c>
-      <c r="D43" s="49">
+      <c r="D43" s="50">
         <v>4769801384.69</v>
       </c>
-      <c r="E43" s="107">
+      <c r="E43" s="108">
         <v>1083472.24</v>
       </c>
-      <c r="F43" s="108">
+      <c r="F43" s="109">
         <v>146313629.12</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="1:6">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="B44" s="23"/>
-      <c r="C44" s="48">
+      <c r="B44" s="24"/>
+      <c r="C44" s="49">
         <v>6200237585.24</v>
       </c>
-      <c r="D44" s="49">
+      <c r="D44" s="50">
         <v>4863260302.41</v>
       </c>
-      <c r="E44" s="107">
+      <c r="E44" s="108">
         <v>1083472.24</v>
       </c>
-      <c r="F44" s="108">
+      <c r="F44" s="109">
         <v>146313629.12</v>
       </c>
     </row>
     <row r="45" ht="17.25" spans="1:6">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="B45" s="23"/>
-      <c r="C45" s="48">
+      <c r="B45" s="24"/>
+      <c r="C45" s="49">
         <v>171621230.82</v>
       </c>
-      <c r="D45" s="49">
+      <c r="D45" s="50">
         <v>93458917.72</v>
       </c>
-      <c r="E45" s="97" t="s">
+      <c r="E45" s="98" t="s">
         <v>171</v>
       </c>
-      <c r="F45" s="102" t="s">
+      <c r="F45" s="103" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="46" ht="17.25" spans="1:1">
-      <c r="A46" s="64" t="s">
+      <c r="A46" s="65" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="47" ht="17.25" spans="1:6">
-      <c r="A47" s="94" t="s">
+      <c r="A47" s="95" t="s">
         <v>230</v>
       </c>
-      <c r="B47" s="95" t="s">
+      <c r="B47" s="96" t="s">
         <v>231</v>
       </c>
-      <c r="C47" s="53">
+      <c r="C47" s="54">
         <v>1.32</v>
       </c>
-      <c r="D47" s="79">
+      <c r="D47" s="80">
         <v>1.03</v>
       </c>
-      <c r="E47" s="109" t="s">
+      <c r="E47" s="110" t="s">
         <v>208</v>
       </c>
-      <c r="F47" s="110" t="s">
+      <c r="F47" s="111" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="48" ht="17.25" spans="1:6">
-      <c r="A48" s="94" t="s">
+      <c r="A48" s="95" t="s">
         <v>232</v>
       </c>
-      <c r="B48" s="96" t="s">
+      <c r="B48" s="97" t="s">
         <v>231</v>
       </c>
-      <c r="C48" s="27">
+      <c r="C48" s="28">
         <v>1.32</v>
       </c>
-      <c r="D48" s="67">
+      <c r="D48" s="68">
         <v>1.03</v>
       </c>
-      <c r="E48" s="106" t="s">
+      <c r="E48" s="107" t="s">
         <v>208</v>
       </c>
-      <c r="F48" s="102" t="s">
+      <c r="F48" s="103" t="s">
         <v>208</v>
       </c>
     </row>
@@ -8009,896 +8143,896 @@
   </cols>
   <sheetData>
     <row r="1" ht="17.25" spans="1:6">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="F1" s="74" t="s">
+      <c r="F1" s="75" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="44" t="s">
+      <c r="A2" s="42"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="F2" s="76" t="s">
+      <c r="F2" s="77" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>233</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="23"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="24"/>
     </row>
     <row r="4" ht="17.25" spans="1:6">
-      <c r="A4" s="47" t="s">
+      <c r="A4" s="48" t="s">
         <v>234</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="48">
+      <c r="B4" s="3"/>
+      <c r="C4" s="49">
         <v>115563984795.27</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="28">
         <v>95673571670.43</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="78" t="s">
+      <c r="F4" s="79" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:6">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="48" t="s">
         <v>235</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="48">
+      <c r="B5" s="3"/>
+      <c r="C5" s="49">
         <v>341164411.56</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="50">
         <v>514356995.71</v>
       </c>
-      <c r="E5" s="61" t="s">
+      <c r="E5" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="56" t="s">
+      <c r="F5" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:6">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="48" t="s">
         <v>236</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="48">
+      <c r="B6" s="3"/>
+      <c r="C6" s="49">
         <v>90792733.32</v>
       </c>
-      <c r="D6" s="49">
+      <c r="D6" s="50">
         <v>403534840.61</v>
       </c>
-      <c r="E6" s="61" t="s">
+      <c r="E6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="56" t="s">
+      <c r="F6" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:6">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="51" t="s">
         <v>237</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="49">
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="50">
         <v>10269542.51</v>
       </c>
-      <c r="E7" s="61" t="s">
+      <c r="E7" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="56" t="s">
+      <c r="F7" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:6">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="48">
+      <c r="B8" s="3"/>
+      <c r="C8" s="49">
         <v>127688921.13</v>
       </c>
-      <c r="D8" s="49">
+      <c r="D8" s="50">
         <v>26010511.6</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F8" s="56" t="s">
+      <c r="F8" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:6">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="52" t="s">
         <v>239</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="C9" s="53">
+      <c r="C9" s="54">
         <v>58652958123.42</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="55">
         <v>56047063335.97</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="54">
         <v>27788543.83</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="55">
         <v>25238029.18</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:6">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="53">
+      <c r="B10" s="3"/>
+      <c r="C10" s="54">
         <v>174776588984.7</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="55">
         <v>152674806896.83</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="54">
         <v>27788543.83</v>
       </c>
-      <c r="F10" s="54">
+      <c r="F10" s="55">
         <v>25238029.18</v>
       </c>
     </row>
     <row r="11" ht="17.25" spans="1:6">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="48" t="s">
         <v>242</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="48">
+      <c r="B11" s="3"/>
+      <c r="C11" s="49">
         <v>71025146726.15</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="50">
         <v>58276487912.25</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="56" t="s">
+      <c r="F11" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:6">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="48">
+      <c r="B12" s="3"/>
+      <c r="C12" s="49">
         <v>6490834.59</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="56" t="s">
+      <c r="F12" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="13" ht="17.25" spans="1:6">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="48" t="s">
         <v>244</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="48">
+      <c r="B13" s="3"/>
+      <c r="C13" s="49">
         <v>200000000</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="61" t="s">
+      <c r="E13" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" ht="17.25" spans="1:6">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="52" t="s">
         <v>245</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="53">
+      <c r="B14" s="3"/>
+      <c r="C14" s="54">
         <v>21327109178.85</v>
       </c>
-      <c r="D14" s="54">
+      <c r="D14" s="55">
         <v>20374609738.88</v>
       </c>
-      <c r="E14" s="53">
+      <c r="E14" s="54">
         <v>2240000</v>
       </c>
-      <c r="F14" s="54">
+      <c r="F14" s="55">
         <v>2960000</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:6">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="52" t="s">
         <v>246</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="53">
+      <c r="B15" s="3"/>
+      <c r="C15" s="54">
         <v>3523330659.86</v>
       </c>
-      <c r="D15" s="54">
+      <c r="D15" s="55">
         <v>3061349148.54</v>
       </c>
-      <c r="E15" s="53">
+      <c r="E15" s="54">
         <v>12428891.32</v>
       </c>
-      <c r="F15" s="54">
+      <c r="F15" s="55">
         <v>52342163.01</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="1:6">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="58" t="s">
         <v>247</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="C16" s="53">
+      <c r="C16" s="54">
         <v>69573238109.76</v>
       </c>
-      <c r="D16" s="54">
+      <c r="D16" s="55">
         <v>65504059548.05</v>
       </c>
-      <c r="E16" s="53">
+      <c r="E16" s="54">
         <v>8232006</v>
       </c>
-      <c r="F16" s="54">
+      <c r="F16" s="55">
         <v>9032441.98</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="1:6">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="56" t="s">
         <v>249</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="53">
+      <c r="B17" s="3"/>
+      <c r="C17" s="54">
         <v>165655315509.21</v>
       </c>
-      <c r="D17" s="54">
+      <c r="D17" s="55">
         <v>147216506347.72</v>
       </c>
-      <c r="E17" s="53">
+      <c r="E17" s="54">
         <v>22900897.32</v>
       </c>
-      <c r="F17" s="54">
+      <c r="F17" s="55">
         <v>64334604.99</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:6">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="C18" s="53">
+      <c r="C18" s="54">
         <v>9121273475.49</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="55">
         <v>5458300549.11</v>
       </c>
-      <c r="E18" s="53">
+      <c r="E18" s="54">
         <v>4887646.51</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="55">
         <v>39096575.81</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="46" t="s">
+      <c r="A19" s="47" t="s">
         <v>251</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="59"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="60"/>
     </row>
     <row r="20" ht="17.25" spans="1:6">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="48" t="s">
         <v>252</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="48">
+      <c r="B20" s="3"/>
+      <c r="C20" s="49">
         <v>419217366.05</v>
       </c>
-      <c r="D20" s="27">
+      <c r="D20" s="28">
         <v>1676632010.64</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="78" t="s">
+      <c r="F20" s="79" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="21" ht="17.25" spans="1:6">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>253</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="53">
+      <c r="B21" s="3"/>
+      <c r="C21" s="54">
         <v>258922603.68</v>
       </c>
-      <c r="D21" s="54">
+      <c r="D21" s="55">
         <v>365345564.04</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="54">
         <v>1004492602.75</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="55">
         <v>1201349883.05</v>
       </c>
     </row>
     <row r="22" ht="17.25" spans="1:6">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="48" t="s">
         <v>254</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="48">
+      <c r="B22" s="3"/>
+      <c r="C22" s="49">
         <v>49125406.4</v>
       </c>
-      <c r="D22" s="49">
+      <c r="D22" s="50">
         <v>24460209.41</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="1:6">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="48" t="s">
         <v>255</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="48">
+      <c r="B23" s="3"/>
+      <c r="C23" s="49">
         <v>220169289.29</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="56" t="s">
+      <c r="F23" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="24" ht="17.25" spans="1:6">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="48" t="s">
         <v>256</v>
       </c>
-      <c r="B24" s="60" t="s">
+      <c r="B24" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="49">
         <v>939000000</v>
       </c>
-      <c r="D24" s="49">
+      <c r="D24" s="50">
         <v>213361241.25</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="56" t="s">
+      <c r="F24" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="1:6">
-      <c r="A25" s="51" t="s">
+      <c r="A25" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="B25" s="52" t="s">
+      <c r="B25" s="53" t="s">
         <v>259</v>
       </c>
-      <c r="C25" s="53">
+      <c r="C25" s="54">
         <v>47171108814.7</v>
       </c>
-      <c r="D25" s="54">
+      <c r="D25" s="55">
         <v>44627517778.79</v>
       </c>
-      <c r="E25" s="53">
+      <c r="E25" s="54">
         <v>2070418479.15</v>
       </c>
-      <c r="F25" s="54">
+      <c r="F25" s="55">
         <v>9186352615.74</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="1:6">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="56" t="s">
         <v>260</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="53">
+      <c r="B26" s="3"/>
+      <c r="C26" s="54">
         <v>49057543480.12</v>
       </c>
-      <c r="D26" s="54">
+      <c r="D26" s="55">
         <v>46907316804.13</v>
       </c>
-      <c r="E26" s="53">
+      <c r="E26" s="54">
         <v>3074911081.9</v>
       </c>
-      <c r="F26" s="54">
+      <c r="F26" s="55">
         <v>10387702498.79</v>
       </c>
     </row>
     <row r="27" ht="17.25" spans="1:6">
-      <c r="A27" s="51" t="s">
+      <c r="A27" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="53">
+      <c r="B27" s="3"/>
+      <c r="C27" s="54">
         <v>6421460049.83</v>
       </c>
-      <c r="D27" s="54">
+      <c r="D27" s="55">
         <v>11771661379.92</v>
       </c>
-      <c r="E27" s="53">
+      <c r="E27" s="54">
         <v>2452174.5</v>
       </c>
-      <c r="F27" s="79">
+      <c r="F27" s="80">
         <v>100000</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="1:6">
-      <c r="A28" s="47" t="s">
+      <c r="A28" s="48" t="s">
         <v>262</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="48">
+      <c r="B28" s="3"/>
+      <c r="C28" s="49">
         <v>1325534437.21</v>
       </c>
-      <c r="D28" s="49">
+      <c r="D28" s="50">
         <v>3021686093.97</v>
       </c>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="56" t="s">
+      <c r="F28" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="29" ht="17.25" spans="1:6">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="48" t="s">
         <v>263</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="49">
         <v>5167526650.16</v>
       </c>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="61" t="s">
+      <c r="E29" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" ht="17.25" spans="1:6">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="48" t="s">
         <v>264</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="61" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="49">
+      <c r="D30" s="50">
         <v>6967591.87</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="56" t="s">
+      <c r="F30" s="57" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" ht="17.25" spans="1:6">
-      <c r="A31" s="51" t="s">
+      <c r="A31" s="52" t="s">
         <v>265</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="C31" s="53">
+      <c r="C31" s="54">
         <v>50191733497.02</v>
       </c>
-      <c r="D31" s="54">
+      <c r="D31" s="55">
         <v>41569033887.78</v>
       </c>
-      <c r="E31" s="53">
+      <c r="E31" s="54">
         <v>7594667711.54</v>
       </c>
-      <c r="F31" s="54">
+      <c r="F31" s="55">
         <v>9422083188.99</v>
       </c>
     </row>
     <row r="32" ht="17.25" spans="1:6">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="56" t="s">
         <v>267</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="53">
+      <c r="B32" s="3"/>
+      <c r="C32" s="54">
         <v>63106254634.22</v>
       </c>
-      <c r="D32" s="54">
+      <c r="D32" s="55">
         <v>56369348953.54</v>
       </c>
-      <c r="E32" s="53">
+      <c r="E32" s="54">
         <v>7597119886.04</v>
       </c>
-      <c r="F32" s="54">
+      <c r="F32" s="55">
         <v>9422183188.99</v>
       </c>
     </row>
     <row r="33" ht="17.25" spans="1:6">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="63" t="s">
         <v>268</v>
       </c>
-      <c r="B33" s="63"/>
-      <c r="C33" s="27">
+      <c r="B33" s="64"/>
+      <c r="C33" s="28">
         <v>14048711154.1</v>
       </c>
-      <c r="D33" s="49">
+      <c r="D33" s="50">
         <v>9462032149.41</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="28">
         <v>4522208804.14</v>
       </c>
-      <c r="F33" s="49">
+      <c r="F33" s="50">
         <v>965519309.8</v>
       </c>
     </row>
     <row r="34" ht="17.25" spans="1:6">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="B34" s="42" t="s">
+      <c r="B34" s="43" t="s">
         <v>163</v>
       </c>
-      <c r="C34" s="43" t="s">
+      <c r="C34" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="D34" s="43" t="s">
+      <c r="D34" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="44" t="s">
         <v>164</v>
       </c>
-      <c r="F34" s="74" t="s">
+      <c r="F34" s="75" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="41"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="44" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="D35" s="45" t="s">
+      <c r="D35" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="E35" s="44" t="s">
+      <c r="E35" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="F35" s="80" t="s">
+      <c r="F35" s="81" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="64" t="s">
+      <c r="A36" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="B36" s="2"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" ht="17.25" spans="1:6">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="66" t="s">
         <v>270</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="53">
+      <c r="B37" s="3"/>
+      <c r="C37" s="54">
         <v>203711460.07</v>
       </c>
-      <c r="D37" s="66">
+      <c r="D37" s="67">
         <v>140902497.46</v>
       </c>
-      <c r="E37" s="81" t="s">
+      <c r="E37" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="66">
+      <c r="F37" s="67">
         <v>127294205.35</v>
       </c>
     </row>
     <row r="38" ht="17.25" spans="1:6">
-      <c r="A38" s="65" t="s">
+      <c r="A38" s="66" t="s">
         <v>271</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="48">
+      <c r="B38" s="3"/>
+      <c r="C38" s="49">
         <v>203711460.07</v>
       </c>
-      <c r="D38" s="67">
+      <c r="D38" s="68">
         <v>13608292.11</v>
       </c>
-      <c r="E38" s="68" t="s">
+      <c r="E38" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="82" t="s">
+      <c r="F38" s="83" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="39" ht="17.25" spans="1:6">
-      <c r="A39" s="47" t="s">
+      <c r="A39" s="48" t="s">
         <v>272</v>
       </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="48">
+      <c r="B39" s="3"/>
+      <c r="C39" s="49">
         <v>24966303173.99</v>
       </c>
-      <c r="D39" s="49">
+      <c r="D39" s="50">
         <v>19394404056.67</v>
       </c>
-      <c r="E39" s="48">
+      <c r="E39" s="49">
         <v>5780496000</v>
       </c>
-      <c r="F39" s="82" t="s">
+      <c r="F39" s="83" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" ht="17.25" spans="1:6">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="48" t="s">
         <v>273</v>
       </c>
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="61" t="s">
         <v>274</v>
       </c>
-      <c r="C40" s="68" t="s">
+      <c r="C40" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="49">
+      <c r="D40" s="50">
         <v>1253776296.12</v>
       </c>
-      <c r="E40" s="68" t="s">
+      <c r="E40" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="F40" s="82" t="s">
+      <c r="F40" s="83" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="41" ht="17.25" spans="1:6">
-      <c r="A41" s="69" t="s">
+      <c r="A41" s="70" t="s">
         <v>275</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="48">
+      <c r="B41" s="3"/>
+      <c r="C41" s="49">
         <v>25170014634.06</v>
       </c>
-      <c r="D41" s="49">
+      <c r="D41" s="50">
         <v>20789082850.25</v>
       </c>
-      <c r="E41" s="48">
+      <c r="E41" s="49">
         <v>5780496000</v>
       </c>
-      <c r="F41" s="49">
+      <c r="F41" s="50">
         <v>127294205.35</v>
       </c>
     </row>
     <row r="42" ht="17.25" spans="1:6">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="48" t="s">
         <v>276</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="48">
+      <c r="B42" s="3"/>
+      <c r="C42" s="49">
         <v>15341594253.22</v>
       </c>
-      <c r="D42" s="49">
+      <c r="D42" s="50">
         <v>12976249182.96</v>
       </c>
-      <c r="E42" s="68" t="s">
+      <c r="E42" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="F42" s="82" t="s">
+      <c r="F42" s="83" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="43" ht="17.25" spans="1:6">
-      <c r="A43" s="47" t="s">
+      <c r="A43" s="48" t="s">
         <v>277</v>
       </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="48">
+      <c r="B43" s="3"/>
+      <c r="C43" s="49">
         <v>1791167110.14</v>
       </c>
-      <c r="D43" s="49">
+      <c r="D43" s="50">
         <v>1524968120.09</v>
       </c>
-      <c r="E43" s="48">
+      <c r="E43" s="49">
         <v>926755859.89</v>
       </c>
-      <c r="F43" s="49">
+      <c r="F43" s="50">
         <v>970985880.7</v>
       </c>
     </row>
     <row r="44" ht="17.25" spans="1:6">
-      <c r="A44" s="47" t="s">
+      <c r="A44" s="48" t="s">
         <v>278</v>
       </c>
-      <c r="B44" s="60" t="s">
+      <c r="B44" s="61" t="s">
         <v>279</v>
       </c>
-      <c r="C44" s="48">
+      <c r="C44" s="49">
         <v>665491765.85</v>
       </c>
-      <c r="D44" s="49">
+      <c r="D44" s="50">
         <v>3214943802.05</v>
       </c>
-      <c r="E44" s="48">
+      <c r="E44" s="49">
         <v>505927086</v>
       </c>
-      <c r="F44" s="49">
+      <c r="F44" s="50">
         <v>1497591.96</v>
       </c>
     </row>
     <row r="45" ht="17.25" spans="1:6">
-      <c r="A45" s="69" t="s">
+      <c r="A45" s="70" t="s">
         <v>280</v>
       </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="48">
+      <c r="B45" s="3"/>
+      <c r="C45" s="49">
         <v>17798253129.21</v>
       </c>
-      <c r="D45" s="49">
+      <c r="D45" s="50">
         <v>17716161105.1</v>
       </c>
-      <c r="E45" s="48">
+      <c r="E45" s="49">
         <v>1432682945.89</v>
       </c>
-      <c r="F45" s="49">
+      <c r="F45" s="50">
         <v>972483472.66</v>
       </c>
     </row>
     <row r="46" ht="17.25" spans="1:6">
-      <c r="A46" s="70" t="s">
+      <c r="A46" s="71" t="s">
         <v>281</v>
       </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="48">
+      <c r="B46" s="3"/>
+      <c r="C46" s="49">
         <v>7371761504.85</v>
       </c>
-      <c r="D46" s="49">
+      <c r="D46" s="50">
         <v>3072921745.15</v>
       </c>
-      <c r="E46" s="48">
+      <c r="E46" s="49">
         <v>4347813054.11</v>
       </c>
-      <c r="F46" s="49">
+      <c r="F46" s="50">
         <v>845189267.31</v>
       </c>
     </row>
     <row r="47" ht="17.25" spans="1:6">
-      <c r="A47" s="71" t="s">
+      <c r="A47" s="72" t="s">
         <v>282</v>
       </c>
-      <c r="B47" s="2"/>
-      <c r="C47" s="48">
+      <c r="B47" s="3"/>
+      <c r="C47" s="49">
         <v>20853078.03</v>
       </c>
-      <c r="D47" s="67">
+      <c r="D47" s="68">
         <v>80516310.83</v>
       </c>
-      <c r="E47" s="83">
+      <c r="E47" s="84">
         <v>186.03</v>
       </c>
-      <c r="F47" s="49">
+      <c r="F47" s="50">
         <v>7928802.04</v>
       </c>
     </row>
     <row r="48" ht="17.25" spans="1:6">
-      <c r="A48" s="71" t="s">
+      <c r="A48" s="72" t="s">
         <v>283</v>
       </c>
-      <c r="B48" s="60" t="s">
+      <c r="B48" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="C48" s="48">
+      <c r="C48" s="49">
         <v>2465176904.27</v>
       </c>
-      <c r="D48" s="49">
+      <c r="D48" s="50">
         <v>850293544.32</v>
       </c>
-      <c r="E48" s="48">
+      <c r="E48" s="49">
         <v>169508289.55</v>
       </c>
-      <c r="F48" s="49">
+      <c r="F48" s="50">
         <v>89162268.72</v>
       </c>
     </row>
     <row r="49" ht="17.25" spans="1:6">
-      <c r="A49" s="47" t="s">
+      <c r="A49" s="48" t="s">
         <v>284</v>
       </c>
-      <c r="B49" s="60" t="s">
+      <c r="B49" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="C49" s="48">
+      <c r="C49" s="49">
         <v>15299271593.99</v>
       </c>
-      <c r="D49" s="49">
+      <c r="D49" s="50">
         <v>16149565138.31</v>
       </c>
-      <c r="E49" s="48">
+      <c r="E49" s="49">
         <v>1136148582.11</v>
       </c>
-      <c r="F49" s="49">
+      <c r="F49" s="50">
         <v>1046986313.39</v>
       </c>
     </row>
     <row r="50" ht="17.25" spans="1:6">
-      <c r="A50" s="72" t="s">
+      <c r="A50" s="73" t="s">
         <v>285</v>
       </c>
-      <c r="B50" s="73" t="s">
+      <c r="B50" s="74" t="s">
         <v>286</v>
       </c>
-      <c r="C50" s="27">
+      <c r="C50" s="28">
         <v>17764448498.26</v>
       </c>
-      <c r="D50" s="49">
+      <c r="D50" s="50">
         <v>15299271593.99</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E50" s="28">
         <v>966640292.56</v>
       </c>
-      <c r="F50" s="49">
+      <c r="F50" s="50">
         <v>1136148582.11</v>
       </c>
     </row>
@@ -8920,7 +9054,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
@@ -8985,34 +9119,34 @@
       <c r="A3" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>4411015524</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>16086543402.55</v>
       </c>
       <c r="E3" t="s">
         <v>299</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>219830232.83</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>95759396.32</v>
       </c>
       <c r="H3" t="s">
         <v>299</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>586501527.41</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>11478728731.98</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="2">
         <v>51805434.4</v>
       </c>
-      <c r="L3" s="1">
+      <c r="L3" s="2">
         <v>32930184249.49</v>
       </c>
     </row>
@@ -9026,7 +9160,7 @@
       <c r="C4" t="s">
         <v>299</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>50000000</v>
       </c>
       <c r="E4" t="s">
@@ -9044,13 +9178,13 @@
       <c r="I4" t="s">
         <v>299</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>52915.21</v>
       </c>
       <c r="K4" t="s">
         <v>299</v>
       </c>
-      <c r="L4" s="1">
+      <c r="L4" s="2">
         <v>50052915.21</v>
       </c>
     </row>
@@ -9063,34 +9197,34 @@
       <c r="A6" t="s">
         <v>303</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>4411015524</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>16136543402.55</v>
       </c>
       <c r="E6" t="s">
         <v>299</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>219830232.83</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>95759396.32</v>
       </c>
       <c r="H6" t="s">
         <v>299</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>586501527.41</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>11478781647.19</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="2">
         <v>51805434.4</v>
       </c>
-      <c r="L6" s="1">
+      <c r="L6" s="2">
         <v>32980237164.7</v>
       </c>
     </row>
@@ -9129,13 +9263,13 @@
       <c r="H9" t="s">
         <v>299</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>4555906237.39</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>-91779647.12</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="2">
         <v>4464126590.27</v>
       </c>
     </row>
@@ -9152,7 +9286,7 @@
       <c r="D10" t="s">
         <v>299</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>307354065.02</v>
       </c>
       <c r="F10" t="s">
@@ -9167,10 +9301,10 @@
       <c r="I10" t="s">
         <v>299</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>-1679270.6</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="2">
         <v>305674794.42</v>
       </c>
     </row>
@@ -9187,7 +9321,7 @@
       <c r="D11" t="s">
         <v>299</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>307354065.02</v>
       </c>
       <c r="F11" t="s">
@@ -9199,13 +9333,13 @@
       <c r="H11" t="s">
         <v>299</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>4555906237.39</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>-93458917.72</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="2">
         <v>4769801384.69</v>
       </c>
     </row>
@@ -9221,13 +9355,13 @@
       <c r="B13" t="s">
         <v>310</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>7751734</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>193421631.34</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>-201173365.34</v>
       </c>
       <c r="F13" t="s">
@@ -9262,7 +9396,7 @@
       <c r="C14" t="s">
         <v>299</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>40149950.44</v>
       </c>
       <c r="E14" t="s">
@@ -9283,10 +9417,10 @@
       <c r="J14" t="s">
         <v>299</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="2">
         <v>1346236.41</v>
       </c>
-      <c r="L14" s="1">
+      <c r="L14" s="2">
         <v>41496186.85</v>
       </c>
     </row>
@@ -9300,7 +9434,7 @@
       <c r="C15" t="s">
         <v>299</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>-5286136.37</v>
       </c>
       <c r="E15" t="s">
@@ -9321,10 +9455,10 @@
       <c r="J15" t="s">
         <v>299</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="2">
         <v>10896643.31</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L15" s="2">
         <v>5610506.94</v>
       </c>
     </row>
@@ -9356,10 +9490,10 @@
       <c r="I16" t="s">
         <v>299</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>382342236.87</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <v>382342236.87</v>
       </c>
     </row>
@@ -9375,7 +9509,7 @@
       <c r="B18" t="s">
         <v>299</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>-351722107.88</v>
       </c>
       <c r="D18" t="s">
@@ -9399,7 +9533,7 @@
       <c r="J18" t="s">
         <v>299</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="2">
         <v>-351722107.88</v>
       </c>
     </row>
@@ -9410,7 +9544,7 @@
       <c r="B19" t="s">
         <v>299</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>162103415.01</v>
       </c>
       <c r="D19" t="s">
@@ -9434,7 +9568,7 @@
       <c r="J19" t="s">
         <v>299</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="2">
         <v>162103415.01</v>
       </c>
     </row>
@@ -9462,7 +9596,7 @@
       <c r="F21" t="s">
         <v>299</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="2">
         <v>89325599.29</v>
       </c>
       <c r="H21" t="s">
@@ -9471,7 +9605,7 @@
       <c r="I21" t="s">
         <v>299</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="2">
         <v>-89325599.29</v>
       </c>
       <c r="K21" t="s">
@@ -9506,10 +9640,10 @@
       <c r="H22" t="s">
         <v>299</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22" s="2">
         <v>14631362.91</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="2">
         <v>-14631362.91</v>
       </c>
       <c r="K22" t="s">
@@ -9532,7 +9666,7 @@
       <c r="D23" t="s">
         <v>299</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="2">
         <v>244898.06</v>
       </c>
       <c r="F23" t="s">
@@ -9547,13 +9681,13 @@
       <c r="I23" t="s">
         <v>299</v>
       </c>
-      <c r="J23" s="1">
+      <c r="J23" s="2">
         <v>-970668313.34</v>
       </c>
       <c r="K23" t="s">
         <v>299</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L23" s="2">
         <v>-970423415.28</v>
       </c>
     </row>
@@ -9567,7 +9701,7 @@
       <c r="C24" t="s">
         <v>299</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="2">
         <v>44409010.58</v>
       </c>
       <c r="E24" t="s">
@@ -9591,7 +9725,7 @@
       <c r="K24" t="s">
         <v>299</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L24" s="2">
         <v>44409010.58</v>
       </c>
     </row>
@@ -9622,7 +9756,7 @@
       <c r="G26" t="s">
         <v>299</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H26" s="2">
         <v>5455815.41</v>
       </c>
       <c r="I26" t="s">
@@ -9634,7 +9768,7 @@
       <c r="K26" t="s">
         <v>299</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L26" s="2">
         <v>5455815.41</v>
       </c>
     </row>
@@ -9660,7 +9794,7 @@
       <c r="G27" t="s">
         <v>299</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <v>-5455815.41</v>
       </c>
       <c r="I27" t="s">
@@ -9672,7 +9806,7 @@
       <c r="K27" t="s">
         <v>299</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L27" s="2">
         <v>-5455815.41</v>
       </c>
     </row>
@@ -9685,34 +9819,34 @@
       <c r="A29" t="s">
         <v>303</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="2">
         <v>4418767258</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29" s="2">
         <v>16219619165.67</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="2">
         <v>-200928467.28</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>527184297.85</v>
       </c>
-      <c r="G29" s="1">
+      <c r="G29" s="2">
         <v>185084995.61</v>
       </c>
       <c r="H29" t="s">
         <v>299</v>
       </c>
-      <c r="I29" s="1">
+      <c r="I29" s="2">
         <v>601132890.32</v>
       </c>
-      <c r="J29" s="1">
+      <c r="J29" s="2">
         <v>14960062609.04</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="2">
         <v>352931633.27</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L29" s="2">
         <v>37063854382</v>
       </c>
     </row>
@@ -9727,8 +9861,8 @@
   <sheetPr/>
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5"/>
@@ -9746,816 +9880,816 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="36" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="1:9">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="7">
         <v>4743645037.94</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="8">
         <v>409761858.21</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>1696690578.75</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>54960582.79</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>255569142.46</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="8">
         <v>562141621.71</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>76077413.36</v>
       </c>
-      <c r="I2" s="36">
+      <c r="I2" s="37">
         <v>7798846235.22</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="10">
         <v>12976569.15</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="30">
         <v>2093073628.26</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="38">
         <v>2106050197.41</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:9">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="38"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="39"/>
     </row>
     <row r="5" ht="17.25" spans="1:9">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C5" s="10">
+      <c r="B5" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="C5" s="11">
         <v>12976569.15</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="G5" s="10">
+      <c r="D5" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="G5" s="11">
         <v>2093073628.26</v>
       </c>
-      <c r="H5" s="30" t="s">
-        <v>299</v>
-      </c>
-      <c r="I5" s="37">
+      <c r="H5" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="I5" s="38">
         <v>2106050197.41</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:9">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="13">
         <v>322384685.23</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="I6" s="37">
+      <c r="C6" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>299</v>
+      </c>
+      <c r="I6" s="38">
         <v>322384685.23</v>
       </c>
     </row>
     <row r="7" ht="17.25" spans="1:9">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="B7" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="13">
         <v>1287742965.19</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>299</v>
-      </c>
-      <c r="H7" s="31">
+      <c r="E7" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>299</v>
+      </c>
+      <c r="H7" s="32">
         <v>23209186.51</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="38">
         <v>1310952151.7</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:9">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="11">
         <v>-81778234.26</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="11">
         <v>-17841315.73</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="11">
         <v>-108586737.97</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="11">
         <v>-47086260.1</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="11">
         <v>-25237655.18</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="11">
         <v>-66442044.37</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="11">
         <v>-911314.74</v>
       </c>
-      <c r="I8" s="38">
+      <c r="I8" s="39">
         <v>-347883562.35</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="11">
         <v>36764057.8</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="11">
         <v>403063.19</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="11">
         <v>48857.87</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="11">
         <v>4800827.52</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="11">
         <v>121805119.4</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="11">
         <v>318520</v>
       </c>
-      <c r="I9" s="38">
+      <c r="I9" s="39">
         <v>164140445.78</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="14">
         <v>5474502965.31</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="15">
         <v>511321828.19</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="15">
         <v>2875846805.97</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="15">
         <v>15543605.12</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="15">
         <v>236061827.88</v>
       </c>
-      <c r="G10" s="32">
+      <c r="G10" s="33">
         <v>2710578325</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="15">
         <v>105616019.64</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="15">
         <v>11929471377.11</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="16">
         <v>-81778234.26</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="16">
         <v>-17841315.73</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="16">
         <v>-108586737.97</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="34">
         <v>-47086260.1</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="16">
         <v>-25237655.18</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="16">
         <v>-66442044.37</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="16">
         <v>-911314.74</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="16">
         <v>-347883562.35</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="16">
         <v>36764057.8</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="16">
         <v>403063.19</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>299</v>
-      </c>
-      <c r="E12" s="15">
+      <c r="D12" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="E12" s="16">
         <v>48857.87</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="34">
         <v>4800827.52</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="16">
         <v>121805119.4</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="16">
         <v>318520</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="16">
         <v>164140445.78</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="16">
         <v>5474502965.31</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="16">
         <v>511321828.19</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="16">
         <v>2875846805.97</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="16">
         <v>15543605.12</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="34">
         <v>236061827.88</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="16">
         <v>2710578325</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="16">
         <v>105616019.64</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="16">
         <v>11929471377.11</v>
       </c>
     </row>
     <row r="14" ht="25" customHeight="true" spans="1:1">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="17" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="15" ht="17.25" spans="1:9">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="8">
         <v>329558225.5</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="8">
         <v>258179090.62</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="8">
         <v>483295081.62</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="8">
         <v>32310856.99</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="8">
         <v>14791777.27</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="8">
         <v>11988125.64</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="8">
         <v>6625603.69</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="37">
         <v>1136748761.33</v>
       </c>
     </row>
     <row r="16" ht="17.25" spans="1:1">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="17" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="17" ht="17.25" spans="1:9">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="10">
         <v>11906100.07</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="G17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I17" s="31">
+      <c r="I17" s="32">
         <v>11906100.07</v>
       </c>
     </row>
     <row r="18" ht="17.25" spans="1:9">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="17" t="s">
         <v>351</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="11">
         <v>29789700.59</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="E18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H18" s="11" t="s">
+      <c r="H18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="39">
         <v>29789700.59</v>
       </c>
     </row>
     <row r="19" ht="17.25" spans="1:9">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>352</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="11">
         <v>118953506.91</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="11">
         <v>74770225.13</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="11">
         <v>453087624.92</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="11">
         <v>2645079.34</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="11">
         <v>12701471.16</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="11">
         <v>137112397.49</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="11">
         <v>13386248.79</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="39">
         <v>812656553.74</v>
       </c>
     </row>
     <row r="20" ht="17.25" spans="1:9">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="17" t="s">
         <v>344</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="38"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="39"/>
     </row>
     <row r="21" ht="17.25" spans="1:9">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="17" t="s">
         <v>345</v>
       </c>
-      <c r="B21" s="9">
+      <c r="B21" s="10">
         <v>-11770881.36</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="I21" s="31">
+      <c r="I21" s="32">
         <v>-11770881.36</v>
       </c>
     </row>
     <row r="22" ht="17.25" spans="1:9">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="11">
         <v>-8779878.04</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="11">
         <v>-2321691.84</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="11">
         <v>-33269714.06</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="11">
         <v>-31324995.47</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="11">
         <v>-9883548.2</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="11">
         <v>-7751571.84</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="11">
         <v>-541036.41</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="39">
         <v>-93872435.86</v>
       </c>
     </row>
     <row r="23" ht="17.25" spans="1:9">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="17" t="s">
         <v>353</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="11">
         <v>2635648.23</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="11">
         <v>254699.44</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="11">
         <v>43457.04</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="11">
         <v>301878.76</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="11">
         <v>2566586.46</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="11">
         <v>61442.83</v>
       </c>
-      <c r="I23" s="38">
+      <c r="I23" s="39">
         <v>5863712.76</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="17" t="s">
         <v>348</v>
       </c>
-      <c r="B24" s="17">
+      <c r="B24" s="18">
         <v>460386321.83</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="15">
         <v>342788423.42</v>
       </c>
-      <c r="D24" s="14">
+      <c r="D24" s="15">
         <v>903112992.48</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="15">
         <v>3674397.9</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="15">
         <v>17911578.99</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="15">
         <v>143915537.75</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="15">
         <v>19532258.9</v>
       </c>
-      <c r="I24" s="32">
+      <c r="I24" s="33">
         <v>1891321511.27</v>
       </c>
     </row>
     <row r="25" ht="17.25" spans="1:9">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E25" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="18" t="s">
+      <c r="F25" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="40" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" ht="17.25" spans="1:9">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="17" t="s">
         <v>338</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="39"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="40"/>
     </row>
     <row r="27" ht="17.25" spans="1:9">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="11">
         <v>45275469.86</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="11" t="s">
+      <c r="F27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G27" s="11" t="s">
+      <c r="G27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I27" s="38">
+      <c r="I27" s="39">
         <v>45275469.86</v>
       </c>
     </row>
     <row r="28" ht="17.25" spans="1:9">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="17" t="s">
         <v>346</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="11">
         <v>-15161960.06</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="11" t="s">
+      <c r="F28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="H28" s="11" t="s">
+      <c r="H28" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I28" s="38">
+      <c r="I28" s="39">
         <v>-15161960.06</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="20" t="s">
         <v>348</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D29" s="15">
         <v>30113509.8</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="21" t="s">
+      <c r="G29" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="15">
         <v>30113509.8</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="20" t="s">
         <v>355</v>
       </c>
-      <c r="B30" s="22"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="2"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="20" t="s">
         <v>356</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="25">
         <v>5014116643.48</v>
       </c>
-      <c r="C31" s="25">
+      <c r="C31" s="26">
         <v>168533404.77</v>
       </c>
-      <c r="D31" s="25">
+      <c r="D31" s="26">
         <v>1942620303.69</v>
       </c>
-      <c r="E31" s="25">
+      <c r="E31" s="26">
         <v>11869207.22</v>
       </c>
-      <c r="F31" s="25">
+      <c r="F31" s="26">
         <v>218150248.89</v>
       </c>
-      <c r="G31" s="34">
+      <c r="G31" s="35">
         <v>2566662787.25</v>
       </c>
-      <c r="H31" s="25">
+      <c r="H31" s="26">
         <v>86083760.74</v>
       </c>
-      <c r="I31" s="25">
+      <c r="I31" s="26">
         <v>10008036356.04</v>
       </c>
     </row>
     <row r="32" ht="17.25" spans="1:9">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="20" t="s">
         <v>357</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="27">
         <v>4414086812.44</v>
       </c>
-      <c r="C32" s="27">
+      <c r="C32" s="28">
         <v>151582767.59</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="28">
         <v>1213395497.13</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="28">
         <v>22649725.8</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F32" s="28">
         <v>240777365.19</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="28">
         <v>550153496.07</v>
       </c>
-      <c r="H32" s="27">
+      <c r="H32" s="28">
         <v>69451809.67</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="41">
         <v>6662097473.89</v>
       </c>
     </row>
@@ -10593,10 +10727,10 @@
       <c r="A2" t="s">
         <v>306</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>5624793610.64</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>4464126590.27</v>
       </c>
     </row>
@@ -10604,10 +10738,10 @@
       <c r="A3" t="s">
         <v>360</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>178620910.23</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>103540525.99</v>
       </c>
     </row>
@@ -10615,7 +10749,7 @@
       <c r="A4" t="s">
         <v>361</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>237999735.04</v>
       </c>
       <c r="C4" t="s">
@@ -10626,10 +10760,10 @@
       <c r="A5" t="s">
         <v>362</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>3005247806.88</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>2547486446.77</v>
       </c>
     </row>
@@ -10637,10 +10771,10 @@
       <c r="A6" t="s">
         <v>363</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>64296755.36</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>50660263.82</v>
       </c>
     </row>
@@ -10648,10 +10782,10 @@
       <c r="A7" t="s">
         <v>364</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>735757728.66</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>387943631.21</v>
       </c>
     </row>
@@ -10659,10 +10793,10 @@
       <c r="A8" t="s">
         <v>365</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>698031441.71</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>523133444.02</v>
       </c>
     </row>
@@ -10670,10 +10804,10 @@
       <c r="A9" t="s">
         <v>366</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>77838216.81</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>19187676.04</v>
       </c>
     </row>
@@ -10681,10 +10815,10 @@
       <c r="A10" t="s">
         <v>367</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>-350137339.23</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>5784709.35</v>
       </c>
     </row>
@@ -10692,10 +10826,10 @@
       <c r="A11" t="s">
         <v>181</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>892343655.1</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>611764977.33</v>
       </c>
     </row>
@@ -10703,10 +10837,10 @@
       <c r="A12" t="s">
         <v>368</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>-1075803394.65</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>-1166485997.95</v>
       </c>
     </row>
@@ -10714,10 +10848,10 @@
       <c r="A13" t="s">
         <v>369</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>4638445.75</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>41496186.85</v>
       </c>
     </row>
@@ -10725,10 +10859,10 @@
       <c r="A14" t="s">
         <v>370</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>-492055830.52</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>-272508189.16</v>
       </c>
     </row>
@@ -10736,10 +10870,10 @@
       <c r="A15" t="s">
         <v>371</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>215900340.97</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>271040088.06</v>
       </c>
     </row>
@@ -10747,10 +10881,10 @@
       <c r="A16" t="s">
         <v>372</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>-32347491.94</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>-29533984.66</v>
       </c>
     </row>
@@ -10758,10 +10892,10 @@
       <c r="A17" t="s">
         <v>373</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>-72763068.97</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="2">
         <v>-269460157.6</v>
       </c>
     </row>
@@ -10769,10 +10903,10 @@
       <c r="A18" t="s">
         <v>374</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="2">
         <v>-4128062981.7</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="2">
         <v>-1977310550.64</v>
       </c>
     </row>
@@ -10780,10 +10914,10 @@
       <c r="A19" t="s">
         <v>375</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>3536974935.35</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="2">
         <v>147434889.41</v>
       </c>
     </row>
@@ -10791,10 +10925,10 @@
       <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="2">
         <v>9121273475.49</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="2">
         <v>5458300549.11</v>
       </c>
     </row>
